--- a/Assignment2/doc/ToDoDependency.xlsx
+++ b/Assignment2/doc/ToDoDependency.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Pick classifiers</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Programming/implementation</t>
+  </si>
+  <si>
+    <t>Train classifier</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,103 +469,118 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
